--- a/Final/Results.xlsx
+++ b/Final/Results.xlsx
@@ -1,24 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zchem\OneDrive\Desktop\University\Summer2020\ENSF_594\Assignments\Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D36A91E9-E39B-4E8C-8446-405659B054C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC07ED5C-3FAD-4772-9638-CDBEA22136D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot1" sheetId="2" r:id="rId1"/>
-    <sheet name="Ex1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
+    <sheet name="Ex1" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId3"/>
+    <pivotCache cacheId="1" r:id="rId6"/>
+    <pivotCache cacheId="7" r:id="rId7"/>
+    <pivotCache cacheId="12" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="23">
   <si>
     <t>Order</t>
   </si>
@@ -84,14 +89,46 @@
     <t>Column Labels</t>
   </si>
   <si>
-    <t>quick Total</t>
+    <t>Min of Time</t>
+  </si>
+  <si>
+    <t>Ascending</t>
+  </si>
+  <si>
+    <t>Descending</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Random </t>
+  </si>
+  <si>
+    <t>Sum of time to process</t>
+  </si>
+  <si>
+    <t>Time to process (s)</t>
+  </si>
+  <si>
+    <t>Number of words in inputfile</t>
+  </si>
+  <si>
+    <t>Sum of Time to process (s)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,15 +137,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -125,11 +168,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -142,11 +216,37 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -177,11 +277,74 @@
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>Bubble &amp; Insertion </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-CA" baseline="0"/>
+              <a:t>Sort-Ascending order</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-CA"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:pivotFmts>
       <c:pivotFmt>
         <c:idx val="0"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -238,6 +401,9 @@
       <c:pivotFmt>
         <c:idx val="1"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -294,6 +460,9 @@
       <c:pivotFmt>
         <c:idx val="2"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -350,6 +519,9 @@
       <c:pivotFmt>
         <c:idx val="3"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -475,6 +647,35 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -502,6 +703,35 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -529,6 +759,35 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -556,6 +815,35 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -583,6 +871,427 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="14"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="15"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="16"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -609,7 +1318,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>quick - ascending</c:v>
+                  <c:v>random  - bubble</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -659,22 +1368,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.46E-6</c:v>
+                  <c:v>3.5999999999999998E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.8699999999999999E-4</c:v>
+                  <c:v>1.35E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.4375999999999999E-3</c:v>
+                  <c:v>9.9044000000000007E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7871700000000001E-2</c:v>
+                  <c:v>0.1128323</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6668E-3</c:v>
+                  <c:v>12.8068835</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.7910000000000001E-3</c:v>
+                  <c:v>1292.9350340000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -695,7 +1404,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>quick - descending</c:v>
+                  <c:v>random  - insertion</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -745,22 +1454,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6.0000000000000002E-6</c:v>
+                  <c:v>3.4999999999999999E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7440000000000001E-4</c:v>
+                  <c:v>7.2600000000000003E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.4524999999999998E-3</c:v>
+                  <c:v>2.3476999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0138199999999999E-2</c:v>
+                  <c:v>3.04076E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0943999999999999E-3</c:v>
+                  <c:v>2.339791</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.6028000000000002E-3</c:v>
+                  <c:v>227.56420270000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -768,93 +1477,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-36AD-4FC7-A107-80238E60064E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Pivot1!$D$3:$D$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>quick - random </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Pivot1!$A$6:$A$12</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1000000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Pivot1!$D$6:$D$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>5.8000000000000004E-6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.7400000000000001E-5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.4390000000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.7764000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.14521E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.8054100000000002E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-36AD-4FC7-A107-80238E60064E}"/>
+              <c16:uniqueId val="{00000004-3D09-4848-9179-0295AC182849}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1174,7 +1797,6 @@
         <c14:dropZoneCategories val="1"/>
         <c14:dropZoneData val="1"/>
         <c14:dropZoneSeries val="1"/>
-        <c14:dropZonesVisible val="1"/>
       </c14:pivotOptions>
     </c:ext>
     <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
@@ -1186,7 +1808,717 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="523025296"/>
+        <c:axId val="523025616"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="523025296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="523025616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="523025616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="523025296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>113809</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>227618</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>341427</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1024281</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.34603E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3271114</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>66.098369899999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>140.90640189999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>196.2657786</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>541.52856650000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9B0E-4B88-B56E-F0817AF9CB5D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="606536208"/>
+        <c:axId val="606536528"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="606536208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Number of words</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="606536528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="606536528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Processing time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="606536208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1742,20 +3074,1052 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
+      <xdr:colOff>495300</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>34290</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>716280</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>34290</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1775,6 +4139,83 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B48C88F9-D7B6-4B14-B503-8107F8FED806}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{352E051F-64EF-4880-9ADA-4B6B2381894E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1887,6 +4328,61 @@
         <n v="0.15399950000000001"/>
         <n v="4.8054100000000002E-2"/>
       </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="ziad chemali" refreshedDate="44060.788678703706" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="5" xr:uid="{0C4777FF-72C5-43C5-9ECA-BD0759357619}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:B6" sheet="Sheet3"/>
+  </cacheSource>
+  <cacheFields count="2">
+    <cacheField name="number of words" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1000" maxValue="341427" count="5">
+        <n v="1000"/>
+        <n v="10000"/>
+        <n v="113809"/>
+        <n v="227618"/>
+        <n v="341427"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="time to process" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.34603E-2" maxValue="196.2657786"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="ziad chemali" refreshedDate="44060.801495254629" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="6" xr:uid="{9317FF98-3E11-4B25-BB27-5936158CABB5}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:B7" sheet="Sheet3"/>
+  </cacheSource>
+  <cacheFields count="2">
+    <cacheField name="Number of words in inputfile" numFmtId="169">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1000" maxValue="1024281" count="6">
+        <n v="1000"/>
+        <n v="10000"/>
+        <n v="113809"/>
+        <n v="227618"/>
+        <n v="341427"/>
+        <n v="1024281"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Time to process (s)" numFmtId="43">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.34603E-2" maxValue="541.52856650000001"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -2334,40 +4830,91 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="5">
+  <r>
+    <x v="0"/>
+    <n v="1.34603E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="0.3271114"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="66.098369899999994"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="140.90640189999999"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="196.2657786"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="6">
+  <r>
+    <x v="0"/>
+    <n v="1.34603E-2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="0.3271114"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="66.098369899999994"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="140.90640189999999"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="196.2657786"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="541.52856650000001"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{15BB17A0-31DD-456F-A1BF-6707409158A0}" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A3:F12" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{15BB17A0-31DD-456F-A1BF-6707409158A0}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="39">
+  <location ref="A3:D12" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="4">
-    <pivotField axis="axisCol" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
+    <pivotField axis="axisCol" showAll="0" defaultSubtotal="0">
+      <items count="3">
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
         <item x="2"/>
-        <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="7">
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="6">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
         <item x="4"/>
         <item x="5"/>
-        <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="5">
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
+    <pivotField axis="axisCol" multipleItemSelectionAllowed="1" showAll="0" defaultSubtotal="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
         <item h="1" x="2"/>
-        <item x="3"/>
-        <item t="default"/>
+        <item h="1" x="3"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" showAll="0">
-      <items count="71">
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0">
+      <items count="70">
         <item x="3"/>
         <item x="1"/>
         <item x="5"/>
@@ -2438,7 +4985,6 @@
         <item x="63"/>
         <item x="62"/>
         <item x="66"/>
-        <item t="default"/>
       </items>
     </pivotField>
   </pivotFields>
@@ -2469,22 +5015,16 @@
     </i>
   </rowItems>
   <colFields count="2">
+    <field x="0"/>
     <field x="2"/>
-    <field x="0"/>
   </colFields>
-  <colItems count="5">
+  <colItems count="3">
     <i>
-      <x v="3"/>
+      <x v="2"/>
       <x/>
     </i>
     <i r="1">
       <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i t="default">
-      <x v="3"/>
     </i>
     <i t="grand">
       <x/>
@@ -2493,7 +5033,7 @@
   <dataFields count="1">
     <dataField name="Sum of Time" fld="3" baseField="1" baseItem="4"/>
   </dataFields>
-  <chartFormats count="10">
+  <chartFormats count="17">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
@@ -2626,6 +5166,179 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="16" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CE568CF1-0C1A-4104-9C0F-2BA8BC6523DF}" name="PivotTable3" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showDrill="0" showDataTips="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+  <location ref="L8:M14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of time to process" fld="1" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -2634,6 +5347,321 @@
     </ext>
     <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
       <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A41F4E31-0B1A-4967-86BB-0F277893DC78}" name="PivotTable2" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="G6:H13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField axis="axisRow" numFmtId="169" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="43" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Time to process (s)" fld="1" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{618D45A5-75CD-4CF3-9B70-8CE60310A0BA}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="A3:C28" firstHeaderRow="1" firstDataRow="2" firstDataCol="2"/>
+  <pivotFields count="4">
+    <pivotField axis="axisCol" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="3">
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+      </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+      </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" sortType="ascending" defaultSubtotal="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="70">
+        <item x="3"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="9"/>
+        <item x="6"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="8"/>
+        <item x="21"/>
+        <item x="16"/>
+        <item x="12"/>
+        <item x="20"/>
+        <item x="19"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="15"/>
+        <item x="18"/>
+        <item x="17"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="33"/>
+        <item x="28"/>
+        <item x="24"/>
+        <item x="32"/>
+        <item x="53"/>
+        <item x="49"/>
+        <item x="23"/>
+        <item x="40"/>
+        <item x="22"/>
+        <item x="31"/>
+        <item x="29"/>
+        <item x="36"/>
+        <item x="44"/>
+        <item x="26"/>
+        <item x="25"/>
+        <item x="65"/>
+        <item x="45"/>
+        <item x="61"/>
+        <item x="27"/>
+        <item x="30"/>
+        <item x="57"/>
+        <item x="35"/>
+        <item x="34"/>
+        <item x="52"/>
+        <item x="37"/>
+        <item x="56"/>
+        <item x="48"/>
+        <item x="43"/>
+        <item x="39"/>
+        <item x="41"/>
+        <item x="69"/>
+        <item x="38"/>
+        <item x="60"/>
+        <item x="64"/>
+        <item x="42"/>
+        <item x="68"/>
+        <item x="47"/>
+        <item x="46"/>
+        <item x="55"/>
+        <item x="51"/>
+        <item x="50"/>
+        <item x="54"/>
+        <item x="59"/>
+        <item x="58"/>
+        <item x="67"/>
+        <item x="63"/>
+        <item x="62"/>
+        <item x="66"/>
+      </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="1"/>
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="24">
+    <i>
+      <x/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="1"/>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="3"/>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="5"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="1">
+    <i>
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Min of Time" fld="3" subtotal="min" baseField="2" baseItem="0" numFmtId="11"/>
+  </dataFields>
+  <formats count="2">
+    <format dxfId="1">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="0">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
     </ext>
   </extLst>
 </pivotTableDefinition>
@@ -2902,25 +5930,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95D8007C-6987-4E63-BFDE-47FE8ABEFA68}">
-  <dimension ref="A3:F12"/>
+  <dimension ref="A3:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" zoomScale="97" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="10" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="9" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="10" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="12" bestFit="1" customWidth="1"/>
@@ -2928,7 +5963,7 @@
     <col min="26" max="26" width="10.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>13</v>
       </c>
@@ -2936,169 +5971,121 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>10</v>
       </c>
       <c r="B6" s="9">
-        <v>1.46E-6</v>
+        <v>3.5999999999999998E-6</v>
       </c>
       <c r="C6" s="9">
-        <v>6.0000000000000002E-6</v>
+        <v>3.4999999999999999E-6</v>
       </c>
       <c r="D6" s="9">
-        <v>5.8000000000000004E-6</v>
-      </c>
-      <c r="E6" s="9">
-        <v>1.326E-5</v>
-      </c>
-      <c r="F6" s="9">
-        <v>1.326E-5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>7.0999999999999998E-6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>100</v>
       </c>
       <c r="B7" s="9">
-        <v>1.8699999999999999E-4</v>
+        <v>1.35E-4</v>
       </c>
       <c r="C7" s="9">
-        <v>1.7440000000000001E-4</v>
+        <v>7.2600000000000003E-5</v>
       </c>
       <c r="D7" s="9">
-        <v>3.7400000000000001E-5</v>
-      </c>
-      <c r="E7" s="9">
-        <v>3.9879999999999999E-4</v>
-      </c>
-      <c r="F7" s="9">
-        <v>3.9879999999999999E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2.076E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>1000</v>
       </c>
       <c r="B8" s="9">
-        <v>3.4375999999999999E-3</v>
+        <v>9.9044000000000007E-3</v>
       </c>
       <c r="C8" s="9">
-        <v>2.4524999999999998E-3</v>
+        <v>2.3476999999999999E-3</v>
       </c>
       <c r="D8" s="9">
-        <v>3.4390000000000001E-4</v>
-      </c>
-      <c r="E8" s="9">
-        <v>6.234E-3</v>
-      </c>
-      <c r="F8" s="9">
-        <v>6.234E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1.22521E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>10000</v>
       </c>
       <c r="B9" s="9">
-        <v>1.7871700000000001E-2</v>
+        <v>0.1128323</v>
       </c>
       <c r="C9" s="9">
-        <v>4.0138199999999999E-2</v>
+        <v>3.04076E-2</v>
       </c>
       <c r="D9" s="9">
-        <v>3.7764000000000001E-3</v>
-      </c>
-      <c r="E9" s="9">
-        <v>6.1786300000000002E-2</v>
-      </c>
-      <c r="F9" s="9">
-        <v>6.1786300000000002E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.1432399</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>100000</v>
       </c>
       <c r="B10" s="9">
-        <v>1.6668E-3</v>
+        <v>12.8068835</v>
       </c>
       <c r="C10" s="9">
-        <v>1.0943999999999999E-3</v>
+        <v>2.339791</v>
       </c>
       <c r="D10" s="9">
-        <v>1.14521E-2</v>
-      </c>
-      <c r="E10" s="9">
-        <v>1.42133E-2</v>
-      </c>
-      <c r="F10" s="9">
-        <v>1.42133E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>15.1466745</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>1000000</v>
       </c>
       <c r="B11" s="9">
-        <v>4.7910000000000001E-3</v>
+        <v>1292.9350340000001</v>
       </c>
       <c r="C11" s="9">
-        <v>3.6028000000000002E-3</v>
+        <v>227.56420270000001</v>
       </c>
       <c r="D11" s="9">
-        <v>4.8054100000000002E-2</v>
-      </c>
-      <c r="E11" s="9">
-        <v>5.6447900000000002E-2</v>
-      </c>
-      <c r="F11" s="9">
-        <v>5.6447900000000002E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1520.4992367</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="9">
-        <v>2.7955560000000001E-2</v>
+        <v>1305.8647928</v>
       </c>
       <c r="C12" s="9">
-        <v>4.7468300000000005E-2</v>
+        <v>229.93682510000002</v>
       </c>
       <c r="D12" s="9">
-        <v>6.3669699999999996E-2</v>
-      </c>
-      <c r="E12" s="9">
-        <v>0.13909356</v>
-      </c>
-      <c r="F12" s="9">
-        <v>0.13909356</v>
+        <v>1535.8016178999999</v>
       </c>
     </row>
   </sheetData>
@@ -3108,11 +6095,1195 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8011AB40-AA1A-44DA-9728-9686E41293DE}">
+  <dimension ref="A1:M14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="21">
+        <v>1000</v>
+      </c>
+      <c r="B2" s="20">
+        <v>1.34603E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="21">
+        <v>10000</v>
+      </c>
+      <c r="B3" s="20">
+        <v>0.3271114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="21">
+        <v>113809</v>
+      </c>
+      <c r="B4" s="20">
+        <v>66.098369899999994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="21">
+        <v>227618</v>
+      </c>
+      <c r="B5" s="20">
+        <v>140.90640189999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="21">
+        <v>341427</v>
+      </c>
+      <c r="B6" s="20">
+        <v>196.2657786</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="21">
+        <v>1024281</v>
+      </c>
+      <c r="B7" s="20">
+        <v>541.52856650000001</v>
+      </c>
+      <c r="G7" s="23">
+        <v>1000</v>
+      </c>
+      <c r="H7" s="9">
+        <v>1.34603E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G8" s="23">
+        <v>10000</v>
+      </c>
+      <c r="H8" s="9">
+        <v>0.3271114</v>
+      </c>
+      <c r="M8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G9" s="23">
+        <v>113809</v>
+      </c>
+      <c r="H9" s="9">
+        <v>66.098369899999994</v>
+      </c>
+      <c r="L9" s="8">
+        <v>1000</v>
+      </c>
+      <c r="M9" s="9">
+        <v>1.34603E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G10" s="23">
+        <v>227618</v>
+      </c>
+      <c r="H10" s="9">
+        <v>140.90640189999999</v>
+      </c>
+      <c r="L10" s="8">
+        <v>10000</v>
+      </c>
+      <c r="M10" s="9">
+        <v>0.3271114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G11" s="23">
+        <v>341427</v>
+      </c>
+      <c r="H11" s="9">
+        <v>196.2657786</v>
+      </c>
+      <c r="L11" s="8">
+        <v>113809</v>
+      </c>
+      <c r="M11" s="9">
+        <v>66.098369899999994</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G12" s="23">
+        <v>1024281</v>
+      </c>
+      <c r="H12" s="9">
+        <v>541.52856650000001</v>
+      </c>
+      <c r="L12" s="8">
+        <v>227618</v>
+      </c>
+      <c r="M12" s="9">
+        <v>140.90640189999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G13" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="9">
+        <v>945.1396886</v>
+      </c>
+      <c r="L13" s="8">
+        <v>341427</v>
+      </c>
+      <c r="M13" s="9">
+        <v>196.2657786</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M14" s="9">
+        <v>403.61112209999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99D1F0F2-C89F-46D6-9324-9EAF3127401B}">
+  <dimension ref="A3:C28"/>
+  <sheetViews>
+    <sheetView zoomScale="73" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1.46E-6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3.0000000000000001E-6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1">
+        <v>8.3000000000000002E-6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1">
+        <v>8.3999999999999992E-6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>100</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1">
+        <v>5.52E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>100</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1.071E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>100</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1.169E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>100</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1.8699999999999999E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1000</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1">
+        <v>5.8330000000000003E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1000</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1.7440999999999999E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>1000</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2.2832999999999998E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>1000</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="1">
+        <v>3.4375999999999999E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>10000</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="1">
+        <v>3.0539E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>10000</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1.27093E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>10000</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1.4530899999999999E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>10000</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1.7871700000000001E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>100000</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1.6668E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>100000</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1.9209199999999999E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>100000</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.96361490000000005</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>100000</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1.0662663999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>1000000</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="1">
+        <v>4.7910000000000001E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>1000000</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="1">
+        <v>9.2494999999999994E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>1000000</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="1">
+        <v>103.6550999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>1000000</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="1">
+        <v>105.41044100000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F2CB0C2-D001-432E-9116-F4EC3EBD804A}">
+  <dimension ref="A6:H30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:E30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.21875" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="10"/>
+    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="15">
+        <v>10</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="18">
+        <v>8.3000000000000002E-6</v>
+      </c>
+      <c r="D7" s="18">
+        <v>3.7000000000000002E-6</v>
+      </c>
+      <c r="E7" s="18">
+        <v>3.5999999999999998E-6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="15">
+        <v>10</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="18">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="D8" s="18">
+        <v>3.4999999999999999E-6</v>
+      </c>
+      <c r="E8" s="18">
+        <v>3.4999999999999999E-6</v>
+      </c>
+      <c r="H8">
+        <f>MIN(C27:C30)</f>
+        <v>4.7910000000000001E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="15">
+        <v>10</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="18">
+        <v>8.3999999999999992E-6</v>
+      </c>
+      <c r="D9" s="18">
+        <v>8.3000000000000002E-6</v>
+      </c>
+      <c r="E9" s="18">
+        <v>9.0000000000000002E-6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="16">
+        <v>10</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="19">
+        <v>1.46E-6</v>
+      </c>
+      <c r="D10" s="19">
+        <v>6.0000000000000002E-6</v>
+      </c>
+      <c r="E10" s="19">
+        <v>5.8000000000000004E-6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="15">
+        <v>100</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="18">
+        <v>1.071E-4</v>
+      </c>
+      <c r="D11" s="18">
+        <v>2.4159999999999999E-4</v>
+      </c>
+      <c r="E11" s="18">
+        <v>1.35E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="15">
+        <v>100</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="18">
+        <v>1.169E-4</v>
+      </c>
+      <c r="D12" s="18">
+        <v>1.2449999999999999E-4</v>
+      </c>
+      <c r="E12" s="18">
+        <v>7.2600000000000003E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="15">
+        <v>100</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="18">
+        <v>5.52E-5</v>
+      </c>
+      <c r="D13" s="18">
+        <v>5.3300000000000001E-5</v>
+      </c>
+      <c r="E13" s="18">
+        <v>5.8799999999999999E-5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="16">
+        <v>100</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="19">
+        <v>1.8699999999999999E-4</v>
+      </c>
+      <c r="D14" s="19">
+        <v>1.7440000000000001E-4</v>
+      </c>
+      <c r="E14" s="19">
+        <v>3.7400000000000001E-5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="15">
+        <v>1000</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="18">
+        <v>2.2832999999999998E-3</v>
+      </c>
+      <c r="D15" s="18">
+        <v>3.3860000000000001E-3</v>
+      </c>
+      <c r="E15" s="18">
+        <v>9.9044000000000007E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="15">
+        <v>1000</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="18">
+        <v>1.7440999999999999E-3</v>
+      </c>
+      <c r="D16" s="18">
+        <v>5.0096999999999997E-3</v>
+      </c>
+      <c r="E16" s="18">
+        <v>2.3476999999999999E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="15">
+        <v>1000</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="18">
+        <v>5.8330000000000003E-4</v>
+      </c>
+      <c r="D17" s="18">
+        <v>5.8E-4</v>
+      </c>
+      <c r="E17" s="18">
+        <v>6.5249999999999998E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="16">
+        <v>1000</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="19">
+        <v>3.4375999999999999E-3</v>
+      </c>
+      <c r="D18" s="19">
+        <v>2.4524999999999998E-3</v>
+      </c>
+      <c r="E18" s="19">
+        <v>3.4390000000000001E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="15">
+        <v>10000</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="18">
+        <v>1.4530899999999999E-2</v>
+      </c>
+      <c r="D19" s="18">
+        <v>7.7396800000000002E-2</v>
+      </c>
+      <c r="E19" s="18">
+        <v>0.1128323</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="15">
+        <v>10000</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="18">
+        <v>1.27093E-2</v>
+      </c>
+      <c r="D20" s="18">
+        <v>3.48708E-2</v>
+      </c>
+      <c r="E20" s="18">
+        <v>3.04076E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="15">
+        <v>10000</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="18">
+        <v>3.0539E-3</v>
+      </c>
+      <c r="D21" s="18">
+        <v>2.0027000000000001E-3</v>
+      </c>
+      <c r="E21" s="18">
+        <v>3.2840999999999999E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="16">
+        <v>10000</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="19">
+        <v>1.7871700000000001E-2</v>
+      </c>
+      <c r="D22" s="19">
+        <v>4.0138199999999999E-2</v>
+      </c>
+      <c r="E22" s="19">
+        <v>3.7764000000000001E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="15">
+        <v>100000</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="18">
+        <v>1.0662663999999999</v>
+      </c>
+      <c r="D23" s="18">
+        <v>6.2591387000000003</v>
+      </c>
+      <c r="E23" s="18">
+        <v>12.8068835</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="15">
+        <v>100000</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="18">
+        <v>0.96361490000000005</v>
+      </c>
+      <c r="D24" s="18">
+        <v>2.9175344000000001</v>
+      </c>
+      <c r="E24" s="18">
+        <v>2.339791</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="15">
+        <v>100000</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="18">
+        <v>1.9209199999999999E-2</v>
+      </c>
+      <c r="D25" s="18">
+        <v>1.6614199999999999E-2</v>
+      </c>
+      <c r="E25" s="18">
+        <v>1.8593499999999999E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="16">
+        <v>100000</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="19">
+        <v>1.6668E-3</v>
+      </c>
+      <c r="D26" s="19">
+        <v>1.0943999999999999E-3</v>
+      </c>
+      <c r="E26" s="19">
+        <v>1.14521E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="15">
+        <v>1000000</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="18">
+        <v>105.41044100000001</v>
+      </c>
+      <c r="D27" s="18">
+        <v>628.41725369999995</v>
+      </c>
+      <c r="E27" s="18">
+        <v>1292.9350340000001</v>
+      </c>
+      <c r="F27">
+        <f>D28/60</f>
+        <v>4.8596783383333335</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="15">
+        <v>1000000</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="18">
+        <v>103.6550999</v>
+      </c>
+      <c r="D28" s="18">
+        <v>291.58070029999999</v>
+      </c>
+      <c r="E28" s="18">
+        <v>227.56420270000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="15">
+        <v>1000000</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="18">
+        <v>9.2494999999999994E-2</v>
+      </c>
+      <c r="D29" s="18">
+        <v>0.105502</v>
+      </c>
+      <c r="E29" s="18">
+        <v>0.15399950000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="16">
+        <v>1000000</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="19">
+        <v>4.7910000000000001E-3</v>
+      </c>
+      <c r="D30" s="19">
+        <v>3.6028000000000002E-3</v>
+      </c>
+      <c r="E30" s="19">
+        <v>4.8054100000000002E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C7:E7">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="7"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8:E8">
+    <cfRule type="colorScale" priority="43">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="7"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9:E9">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="7"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10:E10">
+    <cfRule type="colorScale" priority="41">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="7"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11:E11">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="7"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12:E12">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="7"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13:E13">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="7"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14:E14">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="7"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15:E15">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="7"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16:E16">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="7"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17:E17">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="7"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18:E18">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="7"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19:E19">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="7"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20:E20">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="7"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21:E21">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="7"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22:E22">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="7"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23:E23">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="7"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24:E24">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="7"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25:E25">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="7"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26:E26">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="7"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27:E27">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="7"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28:E28">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="7"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29:E29">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="7"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30:E30">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="7"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
